--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -959,16 +986,19 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -988,16 +1018,19 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1117,16 +1160,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1204,16 +1256,19 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1233,16 +1288,19 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1407,16 +1480,19 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1465,50 +1544,56 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2020,11 +2154,14 @@
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2050,15 +2187,18 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,13 +2381,16 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2399,7 +2573,7 @@
         <v>-1200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H72" s="3">
         <v>-1100</v>
@@ -2408,13 +2582,16 @@
         <v>-1100</v>
       </c>
       <c r="J72" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="K72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,13 +2683,16 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2613,16 +2808,19 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +991,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -989,16 +1016,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,16 +1051,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1109,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,8 +1179,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1163,16 +1206,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1284,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1259,16 +1311,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1291,16 +1346,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1529,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1483,16 +1556,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1599,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1547,53 +1626,59 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2159,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,13 +2259,16 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2157,11 +2291,14 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2190,10 +2327,13 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2201,7 +2341,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2539,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2393,7 +2551,7 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2729,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2576,7 +2750,7 @@
         <v>-1200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I72" s="3">
         <v>-1100</v>
@@ -2585,13 +2759,16 @@
         <v>-1100</v>
       </c>
       <c r="K72" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="L72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +2869,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2695,7 +2881,7 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2939,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2811,16 +3006,19 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,70 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +762,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +943,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +984,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1043,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1019,16 +1072,22 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,16 +1113,22 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1142,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1179,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1220,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,13 +1261,19 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1209,16 +1294,22 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,13 +1384,19 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1314,21 +1417,27 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1349,16 +1458,22 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1630,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,13 +1671,19 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1559,16 +1704,22 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,13 +1753,19 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1629,56 +1786,68 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1878,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1742,8 +1915,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1956,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1997,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2038,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +2079,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1891,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1917,8 +2120,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2161,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,31 +2202,37 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2022,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,16 +2407,22 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2197,8 +2448,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2486,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,19 +2523,25 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2294,11 +2561,17 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2306,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2330,24 +2603,30 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2367,8 +2646,14 @@
       <c r="M60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,22 +2851,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -2577,8 +2892,14 @@
       <c r="M66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,13 +3073,19 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E72" s="3">
         <v>-1200</v>
@@ -2753,22 +3100,28 @@
         <v>-1200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="J72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K72" s="3">
         <v>-1100</v>
       </c>
       <c r="L72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,22 +3237,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -2907,8 +3278,14 @@
       <c r="M76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,53 +3319,65 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3009,16 +3398,22 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3464,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3669,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3710,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3768,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,31 +3850,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3432,8 +3891,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +4072,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,8 +4113,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4154,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3666,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3690,6 +4193,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1078,16 +1105,19 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1119,16 +1149,19 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,17 +1307,20 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1300,16 +1343,19 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,17 +1439,20 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1423,25 +1475,28 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1464,16 +1519,19 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,17 +1747,20 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -1710,16 +1783,19 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,17 +1835,20 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -1792,62 +1871,68 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,11 +1976,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2094,11 +2196,11 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,16 +2316,19 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2234,8 +2345,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,19 +2536,22 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,13 +2672,13 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2567,11 +2701,14 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,11 +2716,11 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -2609,10 +2746,13 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2623,13 +2763,13 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,25 +3012,28 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3088,7 +3262,7 @@
         <v>-1300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F72" s="3">
         <v>-1200</v>
@@ -3106,7 +3280,7 @@
         <v>-1200</v>
       </c>
       <c r="K72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="L72" s="3">
         <v>-1100</v>
@@ -3115,13 +3289,16 @@
         <v>-1100</v>
       </c>
       <c r="N72" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="O72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3252,16 +3438,16 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,63 +3514,69 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -3404,16 +3599,19 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,16 +4083,19 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -3882,8 +4112,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4169,11 +4421,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,31 +1033,34 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,16 +1135,19 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,16 +1182,19 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,11 +1362,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1346,16 +1389,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,11 +1503,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1478,16 +1530,19 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,11 +1550,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1522,16 +1577,19 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,11 +1832,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1786,16 +1859,19 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,11 +1926,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1874,65 +1953,71 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,11 +2066,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,11 +2301,11 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2330,8 +2441,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2348,8 +2459,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,13 +2809,13 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2704,11 +2838,14 @@
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,11 +2856,11 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -2749,10 +2886,13 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2766,13 +2906,13 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -2795,13 +2935,16 @@
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,19 +3182,19 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,19 +3424,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E72" s="3">
         <v>-1300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G72" s="3">
         <v>-1200</v>
@@ -3283,7 +3457,7 @@
         <v>-1200</v>
       </c>
       <c r="L72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="M72" s="3">
         <v>-1100</v>
@@ -3292,13 +3466,16 @@
         <v>-1100</v>
       </c>
       <c r="O72" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="P72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3612,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3441,16 +3627,16 @@
         <v>-200</v>
       </c>
       <c r="F76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,11 +3770,11 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3602,16 +3797,19 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4097,8 +4327,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -4115,8 +4345,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,11 +4676,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,16 +1055,19 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1062,8 +1084,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1138,16 +1164,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,16 +1214,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,11 +1407,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1392,16 +1434,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1506,11 +1557,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1533,16 +1584,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,11 +1607,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1580,16 +1634,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,11 +1907,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1862,16 +1934,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1929,11 +2007,11 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1956,68 +2034,74 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2069,11 +2155,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2304,11 +2405,11 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2444,11 +2554,11 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2462,8 +2572,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,13 +2945,13 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2841,16 +2974,19 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2859,11 +2995,11 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -2889,15 +3025,18 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2909,13 +3048,13 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -2938,17 +3077,20 @@
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3185,19 +3342,19 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3220,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3436,13 +3609,13 @@
         <v>-1400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H72" s="3">
         <v>-1200</v>
@@ -3460,7 +3633,7 @@
         <v>-1200</v>
       </c>
       <c r="M72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="N72" s="3">
         <v>-1100</v>
@@ -3469,13 +3642,16 @@
         <v>-1100</v>
       </c>
       <c r="P72" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="Q72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,13 +3797,16 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -3630,16 +3815,16 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H76" s="3">
         <v>-100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3773,11 +3967,11 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3800,16 +3994,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,31 +4024,32 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4330,8 +4559,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -4348,8 +4577,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4679,11 +4930,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,13 +792,16 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1069,8 +1092,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1087,8 +1110,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1167,16 +1194,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,16 +1247,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,16 +1329,19 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,13 +1435,16 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1410,11 +1453,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1437,16 +1480,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,13 +1594,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1560,11 +1612,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1587,21 +1639,24 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1610,11 +1665,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1637,16 +1692,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,13 +1965,16 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1910,11 +1983,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1937,16 +2010,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,13 +2071,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2010,11 +2089,11 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2037,71 +2116,77 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,13 +2226,14 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2158,11 +2245,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,13 +2489,16 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2408,11 +2510,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2560,8 +2671,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2575,8 +2686,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,31 +2807,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,13 +2913,16 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2805,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,13 +3061,16 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2951,10 +3085,10 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2977,11 +3111,14 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,7 +3126,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2998,11 +3135,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -3028,18 +3165,21 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3051,13 +3191,13 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,11 +3232,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,13 +3485,16 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -3345,19 +3503,19 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,25 +3771,28 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E72" s="3">
         <v>-1400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G72" s="3">
         <v>-1300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I72" s="3">
         <v>-1200</v>
@@ -3636,7 +3810,7 @@
         <v>-1200</v>
       </c>
       <c r="N72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="O72" s="3">
         <v>-1100</v>
@@ -3645,13 +3819,16 @@
         <v>-1100</v>
       </c>
       <c r="Q72" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="R72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,7 +3995,7 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
@@ -3818,16 +4004,16 @@
         <v>-200</v>
       </c>
       <c r="H76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,68 +4089,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3970,11 +4165,11 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3997,16 +4192,19 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,16 +4223,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -4051,8 +4250,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4562,8 +4792,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -4580,8 +4810,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,13 +5164,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4933,11 +5185,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,16 +799,19 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -848,16 +855,19 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1095,8 +1118,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,7 +1188,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1197,16 +1224,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1250,16 +1280,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,10 +1378,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1490,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1456,11 +1499,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1483,16 +1526,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1658,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1615,11 +1667,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1642,16 +1694,19 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1714,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1668,11 +1723,11 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1695,16 +1750,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +2050,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1986,11 +2059,11 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2013,16 +2086,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,7 +2162,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2092,11 +2171,11 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2119,74 +2198,80 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,17 +2313,18 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2248,11 +2335,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,17 +2591,20 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2513,11 +2615,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2674,8 +2785,8 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2689,8 +2800,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,16 +2927,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -2836,8 +2956,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,17 +3039,20 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -2934,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3088,10 +3222,10 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -3114,11 +3248,14 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,7 +3266,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3138,11 +3275,11 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -3168,10 +3305,13 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,10 +3319,10 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3194,13 +3334,13 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3223,23 +3363,26 @@
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,7 +3655,7 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -3506,19 +3664,19 @@
         <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,28 +3945,31 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1400</v>
       </c>
       <c r="F72" s="3">
         <v>-1400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H72" s="3">
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J72" s="3">
         <v>-1200</v>
@@ -3813,7 +3987,7 @@
         <v>-1200</v>
       </c>
       <c r="O72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="P72" s="3">
         <v>-1100</v>
@@ -3822,13 +3996,16 @@
         <v>-1100</v>
       </c>
       <c r="R72" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="S72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,19 +4169,22 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
@@ -4007,16 +4193,16 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,7 +4354,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4168,11 +4363,11 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -4195,16 +4390,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,8 +4434,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -4253,8 +4452,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4756,16 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4795,8 +5025,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4813,8 +5043,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,17 +5304,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,17 +5416,20 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5188,11 +5440,11 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EPGG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>EPGG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,8 +820,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +879,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1121,8 +1144,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1139,8 +1162,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1218,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1227,16 +1254,19 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +1277,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1283,16 +1313,19 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,13 +1415,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,7 +1536,7 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1502,11 +1545,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1529,16 +1572,19 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1713,7 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1670,11 +1722,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1697,16 +1749,19 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,7 +1772,7 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1726,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1753,16 +1808,19 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2111,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2126,7 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2062,11 +2135,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2089,16 +2162,19 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,7 +2244,7 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2174,11 +2253,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2201,77 +2280,83 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,11 +2410,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2338,11 +2425,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,11 +2705,11 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2618,11 +2720,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2788,8 +2899,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2803,8 +2914,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,8 +3061,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2959,8 +3079,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,11 +3177,11 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -3063,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,7 +3344,7 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -3225,10 +3359,10 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -3251,11 +3385,14 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3269,7 +3406,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3278,11 +3415,11 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3308,10 +3445,13 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3322,10 +3462,10 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3337,13 +3477,13 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,17 +3518,17 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,19 +3801,22 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -3667,19 +3825,19 @@
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,31 +4119,34 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1400</v>
       </c>
       <c r="G72" s="3">
         <v>-1400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K72" s="3">
         <v>-1200</v>
@@ -3990,7 +4164,7 @@
         <v>-1200</v>
       </c>
       <c r="P72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="Q72" s="3">
         <v>-1100</v>
@@ -3999,13 +4173,16 @@
         <v>-1100</v>
       </c>
       <c r="S72" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="T72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,22 +4355,25 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -4196,16 +4382,16 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,7 +4552,7 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -4366,11 +4561,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -4393,16 +4588,19 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4437,8 +4636,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -4455,8 +4654,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,17 +4973,20 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5028,8 +5258,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5046,8 +5276,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,11 +5562,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,20 +5668,23 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5443,11 +5695,11 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
